--- a/content/posts/06_2022_yks_puan_hesaplama2/eaModel.xlsx
+++ b/content/posts/06_2022_yks_puan_hesaplama2/eaModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRSA\D3\content\posts\06_2022_yks_puan_hesaplama2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ACCDA13-EE0B-4EE5-B42F-587D1F795C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A5DA15-7A5A-4202-9770-A9E35A3145F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{FF3B150E-D3C3-4142-82BA-4F15270DE685}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>TYT</t>
   </si>
@@ -63,13 +63,25 @@
   </si>
   <si>
     <t>Intercept</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Tip</t>
+  </si>
+  <si>
+    <t>Grup</t>
+  </si>
+  <si>
+    <t>Kats</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +89,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF373A3C"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,12 +118,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,108 +450,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19476DDF-533E-48B0-9441-3A2C12C0FA0D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C1">
-        <v>92.477080000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1.8592299999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>92.492829999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1.2019899999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.8608800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1.3070200000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.19997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.30829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1.2234799999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>3.6053999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1.22387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>3.0235699999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.6046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>3.3451599999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.0262799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.34531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>2.3712</v>
+      <c r="C10" s="1">
+        <v>2.3651399999999998</v>
       </c>
     </row>
   </sheetData>
